--- a/flows/IVOL_fund_flow_data.xlsx
+++ b/flows/IVOL_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1207"/>
+  <dimension ref="A1:B1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12505,6 +12505,136 @@
         <v>-18.309473</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1208" t="n">
+        <v>-1.7414906</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1209" t="n">
+        <v>0.30412507</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1210" t="n">
+        <v>-8.758011</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1211" t="n">
+        <v>0.012389117</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1212" t="n">
+        <v>-2.894785</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1213" t="n">
+        <v>-0.9689014</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1214" t="n">
+        <v>0.00058638764</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1215" t="n">
+        <v>-0.007860522999999999</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1216" t="n">
+        <v>-1.2647657</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1217" t="n">
+        <v>-19.769741</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1218" t="n">
+        <v>-1.0217984</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1219" t="n">
+        <v>-0.1072357</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1220" t="n">
+        <v>-0.07950495</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
